--- a/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>118,22%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>117,93%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>23,14%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>12.77244640679424</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>10.34305396827108</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.202005965555608</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.9344068646193096</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.443608083915681</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1902332719940055</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>8,82; 18,14</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 13,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 6,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>58,03; 199,92</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>55,3; 200,45</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 71,91</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>6.867632948259351</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>6.26964017080195</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-2.073839265964315</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.3798007543266281</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.6338262064662599</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1612248636855673</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.9541194407733</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>14.55459851164643</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>6.433656746983496</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.762245714089854</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.668129663666738</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.6671866062350056</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>119,93%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>119,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 5,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 4,76</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 1,25</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>56,35; 210,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>55,78; 209,86</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-21,56; 21,66</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>4.102307901972067</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>3.164591440529518</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>-0.07067087809689426</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.260775828473739</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.145642746082688</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.0104910322803724</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2.407816527428547</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1.669392749584256</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-1.546540692610783</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.5991702858729344</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.4559427029256208</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2026322035020974</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>5.614927305050471</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>4.741064707127382</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.36455836576017</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.203242712037322</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.092048121483336</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.2274683454695364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>91,36%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>129,65%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-31,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 4,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 2,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 0,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 276,82</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; 446,33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-65,22; 29,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>2.567381251137582</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1.114638367407174</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-0.7909234511293497</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8957873555257985</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.27816703434823</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.3461317399449649</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.08257691314921213</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-0.04336961736324946</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-2.078560902135567</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.02311772042214277</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2171624283494928</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.6791248257074016</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>5.015293006625705</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.672061092704353</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.4157252637941762</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.546224018877647</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>5.249996666342907</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.3038537585036992</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>148,8%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>128,82%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 7,37</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 4,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 1,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>100,28; 208,93</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>83,06; 188,06</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 22,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>6.173984736493627</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>3.922451670581408</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.06671167274361345</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.426877857376384</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.362296821796156</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.01077646607844445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>4.834589860823265</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>2.818967628002187</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-1.100393180414177</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.9328799817244956</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.8384984398413593</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1609902072298586</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>7.572129051972132</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>5.158648333262936</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1.195999932850646</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.020742778057453</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.02407745814727</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2123392143501257</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
